--- a/IntersectionViewer/data.xlsx
+++ b/IntersectionViewer/data.xlsx
@@ -25,122 +25,132 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="F17" authorId="0">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Off by about ~5 degrees to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0">
+    <comment ref="J18" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">A little too far to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="F19" authorId="0">
+    <comment ref="J19" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Too far left, ~8 degrees off</t>
         </r>
       </text>
     </comment>
-    <comment ref="F20" authorId="0">
+    <comment ref="J20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Off by &lt;5 degrees to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="F21" authorId="0">
+    <comment ref="J21" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Off by &lt; 5 degrees to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="G17" authorId="0">
+    <comment ref="K17" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Off a couple of degrees to the right</t>
         </r>
       </text>
     </comment>
-    <comment ref="G18" authorId="0">
+    <comment ref="K18" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">~ 20 degrees off to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="G19" authorId="0">
+    <comment ref="K19" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Off to the right by about 15 degrees
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="G20" authorId="0">
+    <comment ref="K20" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">About 5 degrees to the left</t>
         </r>
       </text>
     </comment>
-    <comment ref="G21" authorId="0">
+    <comment ref="K21" authorId="0">
       <text>
         <r>
           <rPr>
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">About 10 degrees off to the right</t>
         </r>
@@ -151,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t xml:space="preserve">Actual</t>
   </si>
@@ -159,6 +169,15 @@
     <t xml:space="preserve">Calculated</t>
   </si>
   <si>
+    <t xml:space="preserve">New Calculated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Real” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Real”</t>
+  </si>
+  <si>
     <t xml:space="preserve">Left Inter</t>
   </si>
   <si>
@@ -177,7 +196,13 @@
     <t xml:space="preserve">Changed LX1 … to LX0, etc. (in result calculation, all 1s became 0s)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Right lenses?)</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIFFERENT SET OF TESTING. Calculating updated in real time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
 </sst>
 </file>
@@ -192,6 +217,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -209,7 +235,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -218,8 +244,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF99FF66"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
   </fills>
@@ -257,12 +295,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -275,6 +321,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF99FF66"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -283,17 +389,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.18367346938776"/>
+    <col collapsed="false" hidden="true" max="5" min="4" style="0" width="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,24 +420,48 @@
         <v>2</v>
       </c>
       <c r="G1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="J1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,14 +628,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <v>-6.5</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>35.5</v>
       </c>
       <c r="D17" s="0" t="n">
@@ -514,17 +645,30 @@
         <v>9.757</v>
       </c>
       <c r="F17" s="1" t="n">
+        <v>-8.986</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <f aca="false">G17/2</f>
+        <v>35</v>
+      </c>
+      <c r="J17" s="2" t="n">
         <v>68.929</v>
       </c>
-      <c r="G17" s="1" t="n">
+      <c r="K17" s="2" t="n">
         <v>126</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>32</v>
       </c>
       <c r="D18" s="0" t="n">
@@ -534,17 +678,31 @@
         <v>13.326</v>
       </c>
       <c r="F18" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>52.29</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <f aca="false">IF(F18 &lt; 0, F18 + 3, F18 - 3)</f>
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <f aca="false">G18/2</f>
+        <v>26.145</v>
+      </c>
+      <c r="J18" s="2" t="n">
         <v>116.3</v>
       </c>
-      <c r="G18" s="1" t="n">
+      <c r="K18" s="2" t="n">
         <v>161.209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>28.5</v>
       </c>
       <c r="D19" s="0" t="n">
@@ -554,17 +712,31 @@
         <v>9.11</v>
       </c>
       <c r="F19" s="1" t="n">
+        <v>-12.63</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <f aca="false">IF(F19 &lt; 0, F19 + 3, F19 - 3)</f>
+        <v>-9.63</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <f aca="false">G19/2</f>
+        <v>35.5</v>
+      </c>
+      <c r="J19" s="2" t="n">
         <v>60.667</v>
       </c>
-      <c r="G19" s="1" t="n">
+      <c r="K19" s="2" t="n">
         <v>117.854</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <v>-0.5</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>46</v>
       </c>
       <c r="D20" s="0" t="n">
@@ -574,17 +746,31 @@
         <v>10.075</v>
       </c>
       <c r="F20" s="1" t="n">
+        <v>-3.75</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>101.291</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <f aca="false">IF(F20 &lt; 0, F20 + 3, F20 - 3)</f>
+        <v>-0.75</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <f aca="false">G20/2</f>
+        <v>50.6455</v>
+      </c>
+      <c r="J20" s="2" t="n">
         <v>80.2</v>
       </c>
-      <c r="G20" s="1" t="n">
+      <c r="K20" s="2" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <v>-7.5</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21" s="1" t="n">
         <v>39</v>
       </c>
       <c r="D21" s="0" t="n">
@@ -594,15 +780,201 @@
         <v>9.258</v>
       </c>
       <c r="F21" s="1" t="n">
+        <v>-11.2598</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <f aca="false">IF(F21 &lt; 0, F21 + 3, F21 - 3)</f>
+        <v>-8.2598</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <f aca="false">G21/2</f>
+        <v>41</v>
+      </c>
+      <c r="J21" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="G21" s="1" t="n">
+      <c r="K21" s="2" t="n">
         <v>127</v>
       </c>
     </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="n">
+        <v>-6.25</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>-2.141</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>37.403</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>123</v>
+      </c>
+    </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="n">
         <v>8</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>7.031</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>37.454</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>-1.094</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>28.898</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>26.19</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>160</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="n">
+        <v>-5</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>-1.091</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>38.862</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>-0.639</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>35.326</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>-1.428</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="n">
+        <v>-4</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>-0.288</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
